--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.011620.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.011620.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3135,12 +3135,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5613,12 +5613,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5651,12 +5651,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5845,12 +5845,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5997,12 +5997,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6187,12 +6187,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6377,12 +6377,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6491,12 +6491,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7365,12 +7365,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7597,12 +7597,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7635,12 +7635,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8133,12 +8133,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8399,12 +8399,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8893,12 +8893,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8931,12 +8931,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9007,12 +9007,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9083,12 +9083,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9733,12 +9733,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10573,12 +10573,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10687,12 +10687,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10763,12 +10763,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11067,12 +11067,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11143,12 +11143,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11261,12 +11261,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11299,12 +11299,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11375,12 +11375,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11603,12 +11603,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11717,12 +11717,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12367,12 +12367,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12519,12 +12519,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12595,12 +12595,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12783,12 +12783,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12859,12 +12859,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13171,12 +13171,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14163,12 +14163,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14467,12 +14467,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14695,12 +14695,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14847,12 +14847,12 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14923,12 +14923,12 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15307,12 +15307,12 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15687,12 +15687,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15915,12 +15915,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
